--- a/test1.xlsx
+++ b/test1.xlsx
@@ -379,13 +379,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetData/>
+  <sheetData>
+    <row r="1" xml:space="preserve">
+      <c r="A1" t="str">
+        <v>吃油条会引起帕金森综合征吗?</v>
+      </c>
+      <c r="B1" t="str" xml:space="preserve">
+        <v xml:space="preserve">帕金森综合症范围较广，包括原发性帕金森病，症状性帕金森综合症，帕金森叠加综合征等等。病因较多，与遗传，毒品接触，药物，外伤，脑血管病，炎症有关。但目前研究并未发现吃油条与帕金森综合症相关。
+虽然吃油条与帕金森综合症无关，但其属于油炸食品，含有较高热量，不宜多吃，以免升高血脂，增加体重，出现血管硬化，不利于健康。</v>
+      </c>
+    </row>
+    <row r="2" xml:space="preserve">
+      <c r="A2" t="str">
+        <v>帕金森能打胞磷胆碱钠注射液吗</v>
+      </c>
+      <c r="B2" t="str" xml:space="preserve">
+        <v xml:space="preserve">帕金森病是我国中老年人常见的神经系统退行性病变，其病理改变是黑质-纹状体内多巴胺的显著缺乏。胞磷胆碱具有营养神经，改善神经损伤的作用。可以用于帕金森病的辅助治疗，但不起主要作用。
+帕金森病的患者不应过度悲观，应积极面对病情，不听信谣言，乱用民间偏方，保持日常食物的正常摄入，多吃蔬菜水果，保持大便通畅，及时就医，在医师的指导下进行治疗。</v>
+      </c>
+    </row>
+  </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:B2"/>
   </ignoredErrors>
 </worksheet>
 </file>